--- a/lab2/measurements.xlsx
+++ b/lab2/measurements.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/futa125/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/futa125/Personal/Repos/Parallel-Programming/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF527D8F-56A3-3C43-819E-20618B6689F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E7DB95-7FAF-1847-A366-ADC5FD4E4C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{AF94690F-1C18-254D-85B4-3D2D8DECE6B9}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{AF94690F-1C18-254D-85B4-3D2D8DECE6B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,66 +208,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$9</c:f>
+              <c:f>Sheet1!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -307,43 +301,40 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$9</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$9</c:f>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -351,22 +342,19 @@
                   <c:v>1.5707386793703895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.976084348677398</c:v>
+                  <c:v>1.9760843486773978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2610705265715731</c:v>
+                  <c:v>2.2610705265715736</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5271370352255711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.6038538252184105</c:v>
+                  <c:v>2.6038538252184109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8389005043236839</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.094070209764324</c:v>
+                  <c:v>2.8389005043236843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -676,66 +664,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52357955979012982</c:v>
+                  <c:v>0.78536933968519473</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4940210871693495</c:v>
+                  <c:v>0.65869478289246597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45221410531431466</c:v>
+                  <c:v>0.5652676316428934</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42118950587092852</c:v>
+                  <c:v>0.50542740704511424</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37197911788834437</c:v>
+                  <c:v>0.43397563753640184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35486256304046049</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.34378557886270267</c:v>
+                  <c:v>0.40555721490338348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,13 +2011,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2064,14 +2046,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1771650</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>1276350</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2397,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446D634F-E221-124E-A5D2-A1D264CDE496}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2430,13 +2412,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>26.303770167</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f>A2*E2</f>
@@ -2444,75 +2426,75 @@
       </c>
       <c r="E2">
         <f>$B$2 / (A2 * B2)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>16.74611475</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">A3*E3</f>
+        <f t="shared" ref="D3:D8" si="0">A3*E3</f>
         <v>1.5707386793703895</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">$B$2 / (A3 * B3)</f>
-        <v>0.52357955979012982</v>
+        <f t="shared" ref="E3:E8" si="1">$B$2 / (A3 * B3)</f>
+        <v>0.78536933968519473</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>13.311056375</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>1.976084348677398</v>
+        <v>1.9760843486773978</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.4940210871693495</v>
+        <v>0.65869478289246597</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>11.633325833000001</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>2.2610705265715731</v>
+        <v>2.2610705265715736</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.45221410531431466</v>
+        <v>0.5652676316428934</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>10.408525458</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
@@ -2520,68 +2502,50 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.42118950587092852</v>
+        <v>0.50542740704511424</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>10.101861292000001</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>2.6038538252184105</v>
+        <v>2.6038538252184109</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.37197911788834437</v>
+        <v>0.43397563753640184</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>9.2654779999999999</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.8389005043236839</v>
+        <v>2.8389005043236843</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.35486256304046049</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>8.5013488329999998</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>3.094070209764324</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.34378557886270267</v>
+        <v>0.40555721490338348</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>